--- a/data/financial_statements/soci/D.xlsx
+++ b/data/financial_statements/soci/D.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -134,9 +251,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -189,12 +303,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -499,135 +610,135 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>4386000000</v>
+        <v>4692000000</v>
       </c>
       <c r="C2">
-        <v>3596000000</v>
+        <v>3868000000</v>
       </c>
       <c r="D2">
         <v>4279000000</v>
@@ -742,14 +853,14 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>0.381</v>
+        <v>0.4773</v>
       </c>
       <c r="C3">
-        <v>0.1837</v>
+        <v>0.2732</v>
       </c>
       <c r="D3">
         <v>0.1057</v>
@@ -864,23 +975,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>1371000000</v>
+        <v>2304000000</v>
       </c>
       <c r="C4">
-        <v>948000000</v>
+        <v>1783000000</v>
       </c>
       <c r="D4">
-        <v>1336000000</v>
+        <v>2032000000</v>
       </c>
       <c r="E4">
-        <v>1054000000</v>
+        <v>1700000000</v>
       </c>
       <c r="F4">
-        <v>789000000</v>
+        <v>1409000000</v>
       </c>
       <c r="G4">
         <v>633000000</v>
@@ -986,23 +1097,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>3015000000</v>
+        <v>2388000000</v>
       </c>
       <c r="C5">
-        <v>2648000000</v>
+        <v>2085000000</v>
       </c>
       <c r="D5">
-        <v>2943000000</v>
+        <v>2247000000</v>
       </c>
       <c r="E5">
-        <v>2826000000</v>
+        <v>2180000000</v>
       </c>
       <c r="F5">
-        <v>2387000000</v>
+        <v>1767000000</v>
       </c>
       <c r="G5">
         <v>2405000000</v>
@@ -1108,8 +1219,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>991000000</v>
@@ -1124,7 +1235,7 @@
         <v>925000000</v>
       </c>
       <c r="F6">
-        <v>927000000</v>
+        <v>924000000</v>
       </c>
       <c r="G6">
         <v>895000000</v>
@@ -1230,8 +1341,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>1072000000</v>
@@ -1352,8 +1463,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>421000000</v>
@@ -1393,8 +1504,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>329000000</v>
@@ -1515,23 +1626,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>-167000000</v>
+        <v>110000000</v>
       </c>
       <c r="C10">
-        <v>-251000000</v>
+        <v>-640000000</v>
       </c>
       <c r="D10">
-        <v>-48000000</v>
+        <v>34000000</v>
       </c>
       <c r="E10">
-        <v>111000000</v>
+        <v>413000000</v>
       </c>
       <c r="F10">
-        <v>-205000000</v>
+        <v>-104000000</v>
       </c>
       <c r="G10">
         <v>-141000000</v>
@@ -1637,8 +1748,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>905000000</v>
@@ -1759,8 +1870,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>124000000</v>
@@ -1881,8 +1992,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>781000000</v>
@@ -2003,8 +2114,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G14">
         <v>16000000</v>
@@ -2020,8 +2131,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E15">
         <v>4000000</v>
@@ -2130,23 +2241,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>778000000</v>
+        <v>758000000</v>
       </c>
       <c r="C16">
-        <v>-453000000</v>
+        <v>-478000000</v>
       </c>
       <c r="D16">
-        <v>711000000</v>
+        <v>684000000</v>
       </c>
       <c r="E16">
-        <v>1341000000</v>
+        <v>1321000000</v>
       </c>
       <c r="F16">
-        <v>654000000</v>
+        <v>638000000</v>
       </c>
       <c r="G16">
         <v>285000000</v>
@@ -2252,8 +2363,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>0.91</v>
@@ -2262,7 +2373,7 @@
         <v>-0.58</v>
       </c>
       <c r="D17">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="E17">
         <v>1.63</v>
@@ -2374,8 +2485,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>0.91</v>
@@ -2496,23 +2607,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>832600000</v>
+        <v>833000000</v>
       </c>
       <c r="C19">
-        <v>818400000</v>
+        <v>818000000</v>
       </c>
       <c r="D19">
-        <v>810600000</v>
+        <v>811000000</v>
       </c>
       <c r="E19">
-        <v>807800000</v>
+        <v>810000000</v>
       </c>
       <c r="F19">
-        <v>808700000</v>
+        <v>809000000</v>
       </c>
       <c r="G19">
         <v>806600000</v>
@@ -2618,20 +2729,20 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>833200000</v>
+        <v>833000000</v>
       </c>
       <c r="C20">
-        <v>818400000</v>
+        <v>818000000</v>
       </c>
       <c r="D20">
         <v>832000000</v>
       </c>
       <c r="E20">
-        <v>808500000</v>
+        <v>811000000</v>
       </c>
       <c r="F20">
         <v>810000000</v>
@@ -2740,23 +2851,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>0.6874</v>
+        <v>0.509</v>
       </c>
       <c r="C21">
-        <v>0.7364000000000001</v>
+        <v>0.539</v>
       </c>
       <c r="D21">
-        <v>0.6878</v>
+        <v>0.5251</v>
       </c>
       <c r="E21">
-        <v>0.7284</v>
+        <v>0.5619</v>
       </c>
       <c r="F21">
-        <v>0.7516</v>
+        <v>0.5564</v>
       </c>
       <c r="G21">
         <v>0.7916</v>
@@ -2862,14 +2973,14 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>0.2444</v>
+        <v>0.2285</v>
       </c>
       <c r="C22">
-        <v>-0.08840000000000001</v>
+        <v>-0.0822</v>
       </c>
       <c r="D22">
         <v>0.2281</v>
@@ -2984,14 +3095,14 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>0.2063</v>
+        <v>0.1929</v>
       </c>
       <c r="C23">
-        <v>-0.1582</v>
+        <v>-0.1471</v>
       </c>
       <c r="D23">
         <v>0.2169</v>
@@ -3106,23 +3217,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>0.1774</v>
+        <v>0.1616</v>
       </c>
       <c r="C24">
-        <v>-0.126</v>
+        <v>-0.1236</v>
       </c>
       <c r="D24">
-        <v>0.1662</v>
+        <v>0.1599</v>
       </c>
       <c r="E24">
-        <v>0.3456</v>
+        <v>0.3405</v>
       </c>
       <c r="F24">
-        <v>0.2059</v>
+        <v>0.2009</v>
       </c>
       <c r="G24">
         <v>0.09379999999999999</v>
@@ -3228,23 +3339,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>1871000000</v>
+        <v>1965000000</v>
       </c>
       <c r="C25">
-        <v>444000000</v>
+        <v>1627000000</v>
       </c>
       <c r="D25">
-        <v>1749000000</v>
+        <v>1741000000</v>
       </c>
       <c r="E25">
-        <v>1647000000</v>
+        <v>1755000000</v>
       </c>
       <c r="F25">
-        <v>1541000000</v>
+        <v>1320000000</v>
       </c>
       <c r="G25">
         <v>1036000000</v>
@@ -3350,8 +3461,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>1072000000</v>
@@ -3472,8 +3583,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>781000000</v>
@@ -3594,8 +3705,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>-3000000</v>
@@ -3647,23 +3758,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>778000000</v>
+        <v>781000000</v>
       </c>
       <c r="C29">
-        <v>-453000000</v>
+        <v>-452000000</v>
       </c>
       <c r="D29">
-        <v>711000000</v>
+        <v>692000000</v>
       </c>
       <c r="E29">
-        <v>1345000000</v>
+        <v>823000000</v>
       </c>
       <c r="F29">
-        <v>666000000</v>
+        <v>601000000</v>
       </c>
       <c r="G29">
         <v>295000000</v>
@@ -3769,8 +3880,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>0.91</v>
@@ -3891,8 +4002,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>0.91</v>
@@ -4013,8 +4124,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>-0.0036</v>
@@ -4069,8 +4180,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>-0.0036</v>
@@ -4122,8 +4233,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>0.9344</v>
@@ -4244,8 +4355,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>0.9337</v>
@@ -4366,8 +4477,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>833200000</v>
@@ -4488,23 +4599,23 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
-        <v>0.4266</v>
+        <v>0.4188</v>
       </c>
       <c r="C37">
-        <v>0.1235</v>
+        <v>0.4206</v>
       </c>
       <c r="D37">
-        <v>0.4087</v>
+        <v>0.4069</v>
       </c>
       <c r="E37">
-        <v>0.4245</v>
+        <v>0.4523</v>
       </c>
       <c r="F37">
-        <v>0.4852</v>
+        <v>0.4156</v>
       </c>
       <c r="G37">
         <v>0.341</v>
@@ -4610,14 +4721,14 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
-        <v>0.2987</v>
+        <v>0.2792</v>
       </c>
       <c r="C38">
-        <v>0.06560000000000001</v>
+        <v>0.061</v>
       </c>
       <c r="D38">
         <v>0.2629</v>
